--- a/www/collab_api/storage/database/categories.xlsx
+++ b/www/collab_api/storage/database/categories.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>Espaces verts</t>
   </si>
@@ -233,12 +233,24 @@
   <si>
     <t>Cat</t>
   </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>espaces-verts/parcs-et-espaces-verts.png</t>
+  </si>
+  <si>
+    <t>sports-loisirs/aires-de-jeux-0-5-ans.png</t>
+  </si>
+  <si>
+    <t>lieux-culturels-en-partie-ouverte/bibliotheque.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +281,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF666666"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +304,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -313,14 +330,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -333,6 +353,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -345,6 +366,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -644,35 +666,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="38.5" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -680,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -688,7 +717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -696,15 +725,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -712,7 +742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -720,7 +750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -728,15 +758,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1">
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -744,7 +777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -752,7 +785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -760,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -768,7 +801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -776,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -784,7 +817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -792,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -800,7 +833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -808,7 +841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -816,7 +849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -824,7 +857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -832,7 +865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -840,7 +873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -848,7 +881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -856,15 +889,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1">
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -872,7 +908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -880,7 +916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1">
+    <row r="29" spans="1:3" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -888,7 +924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1">
+    <row r="30" spans="1:3" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -896,7 +932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1">
+    <row r="31" spans="1:3" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -904,7 +940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1">
+    <row r="32" spans="1:3" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>40</v>
       </c>
